--- a/PROJECT.xlsx
+++ b/PROJECT.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA72530-3AF2-43CE-956E-FFDEE96DD831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42646167-A4EC-4C00-8476-DDA5AF252E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CB3E4AE6-4B04-482A-964A-841E00B8A0F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB3E4AE6-4B04-482A-964A-841E00B8A0F3}"/>
   </bookViews>
   <sheets>
     <sheet name="data cleaned" sheetId="1" r:id="rId1"/>
     <sheet name="pivot table and chart" sheetId="8" r:id="rId2"/>
     <sheet name="dashboards" sheetId="14" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Cars">#N/A</definedName>
@@ -29,18 +28,18 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
-        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -900,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,7 +969,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -18283,8 +18281,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Income">
@@ -18307,7 +18305,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18361,8 +18359,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Education">
@@ -18385,7 +18383,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18439,8 +18437,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Occupation">
@@ -18463,7 +18461,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18517,8 +18515,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Home Owner">
@@ -18541,7 +18539,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18595,8 +18593,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Cars">
@@ -18619,7 +18617,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18673,8 +18671,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Region">
@@ -18697,7 +18695,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18751,8 +18749,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="purchased bike count">
@@ -18775,7 +18773,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -34930,7 +34928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FD3F899-6A9D-4B5F-A0FD-7B2EA7CF7E33}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FD3F899-6A9D-4B5F-A0FD-7B2EA7CF7E33}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A94:B97" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -35088,7 +35086,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71C56251-ADFF-4CD1-A62C-08800932E3DD}" name="PivotTable9" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71C56251-ADFF-4CD1-A62C-08800932E3DD}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A61:C91" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -35304,7 +35302,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F7F35E9-FFE2-463B-A892-149DF65AFF61}" name="PivotTable7" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F7F35E9-FFE2-463B-A892-149DF65AFF61}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A43:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -35507,7 +35505,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{789B21A1-1E1F-4C78-85EB-AD587B7CB826}" name="PivotTable6" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{789B21A1-1E1F-4C78-85EB-AD587B7CB826}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A25:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -35611,7 +35609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{755778B8-7529-486C-A007-19B2986918A8}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="income">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{755778B8-7529-486C-A007-19B2986918A8}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="income">
   <location ref="A4:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -36135,8 +36133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890728BF-B65F-457E-A691-EDB852A4EF22}">
   <dimension ref="A2:N1005"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -81224,7 +81222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD327E7-B9E7-4A12-AF0A-72AFD4ED9F36}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -81262,7 +81260,7 @@
       <c r="A5" s="19">
         <v>10000</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5">
         <v>28</v>
       </c>
     </row>
@@ -81270,7 +81268,7 @@
       <c r="A6" s="19">
         <v>20000</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6">
         <v>31</v>
       </c>
     </row>
@@ -81278,7 +81276,7 @@
       <c r="A7" s="19">
         <v>30000</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7">
         <v>54</v>
       </c>
     </row>
@@ -81286,7 +81284,7 @@
       <c r="A8" s="19">
         <v>40000</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8">
         <v>90</v>
       </c>
     </row>
@@ -81294,7 +81292,7 @@
       <c r="A9" s="19">
         <v>50000</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9">
         <v>20</v>
       </c>
     </row>
@@ -81302,7 +81300,7 @@
       <c r="A10" s="19">
         <v>60000</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10">
         <v>81</v>
       </c>
     </row>
@@ -81310,7 +81308,7 @@
       <c r="A11" s="19">
         <v>70000</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11">
         <v>66</v>
       </c>
     </row>
@@ -81318,7 +81316,7 @@
       <c r="A12" s="19">
         <v>80000</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12">
         <v>35</v>
       </c>
     </row>
@@ -81326,7 +81324,7 @@
       <c r="A13" s="19">
         <v>90000</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13">
         <v>25</v>
       </c>
     </row>
@@ -81334,7 +81332,7 @@
       <c r="A14" s="19">
         <v>100000</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14">
         <v>11</v>
       </c>
     </row>
@@ -81342,7 +81340,7 @@
       <c r="A15" s="19">
         <v>110000</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15">
         <v>8</v>
       </c>
     </row>
@@ -81350,7 +81348,7 @@
       <c r="A16" s="19">
         <v>120000</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16">
         <v>10</v>
       </c>
     </row>
@@ -81358,7 +81356,7 @@
       <c r="A17" s="19">
         <v>130000</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17">
         <v>15</v>
       </c>
     </row>
@@ -81366,7 +81364,7 @@
       <c r="A18" s="19">
         <v>150000</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18">
         <v>3</v>
       </c>
     </row>
@@ -81374,7 +81372,7 @@
       <c r="A19" s="19">
         <v>160000</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
@@ -81382,7 +81380,7 @@
       <c r="A20" s="19">
         <v>170000</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
@@ -81390,7 +81388,7 @@
       <c r="A21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21">
         <v>481</v>
       </c>
     </row>
@@ -81414,10 +81412,10 @@
       <c r="A26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26">
         <v>767</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26">
         <v>231</v>
       </c>
     </row>
@@ -81425,10 +81423,10 @@
       <c r="A27" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27">
         <v>675</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27">
         <v>250</v>
       </c>
     </row>
@@ -81436,10 +81434,10 @@
       <c r="A28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28">
         <v>1442</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28">
         <v>481</v>
       </c>
     </row>
@@ -81466,10 +81464,10 @@
       <c r="A44" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44">
         <v>71</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44">
         <v>12</v>
       </c>
     </row>
@@ -81477,10 +81475,10 @@
       <c r="A45" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45">
         <v>92</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45">
         <v>40</v>
       </c>
     </row>
@@ -81488,10 +81486,10 @@
       <c r="A46" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46">
         <v>81</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46">
         <v>15</v>
       </c>
     </row>
@@ -81499,10 +81497,10 @@
       <c r="A47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47">
         <v>244</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47">
         <v>67</v>
       </c>
     </row>
@@ -81526,10 +81524,10 @@
       <c r="A62" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62">
         <v>435</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62">
         <v>169</v>
       </c>
     </row>
@@ -81537,10 +81535,10 @@
       <c r="A63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63">
         <v>6</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63">
         <v>34</v>
       </c>
     </row>
@@ -81548,10 +81546,10 @@
       <c r="A64" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64">
         <v>203</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64">
         <v>40</v>
       </c>
     </row>
@@ -81559,10 +81557,10 @@
       <c r="A65" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="31">
-        <v>0</v>
-      </c>
-      <c r="C65" s="31">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
     </row>
@@ -81570,10 +81568,10 @@
       <c r="A66" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66">
         <v>152</v>
       </c>
-      <c r="C66" s="31">
+      <c r="C66">
         <v>55</v>
       </c>
     </row>
@@ -81581,10 +81579,10 @@
       <c r="A67" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67">
         <v>74</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67">
         <v>40</v>
       </c>
     </row>
@@ -81592,10 +81590,10 @@
       <c r="A68" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68">
         <v>126</v>
       </c>
-      <c r="C68" s="31">
+      <c r="C68">
         <v>94</v>
       </c>
     </row>
@@ -81603,10 +81601,10 @@
       <c r="A69" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="31">
-        <v>0</v>
-      </c>
-      <c r="C69" s="31">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>18</v>
       </c>
     </row>
@@ -81614,10 +81612,10 @@
       <c r="A70" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70">
         <v>112</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70">
         <v>25</v>
       </c>
     </row>
@@ -81625,10 +81623,10 @@
       <c r="A71" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="31">
-        <v>0</v>
-      </c>
-      <c r="C71" s="31">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>2</v>
       </c>
     </row>
@@ -81636,10 +81634,10 @@
       <c r="A72" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72">
         <v>14</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72">
         <v>32</v>
       </c>
     </row>
@@ -81647,10 +81645,10 @@
       <c r="A73" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="31">
-        <v>0</v>
-      </c>
-      <c r="C73" s="31">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>17</v>
       </c>
     </row>
@@ -81658,10 +81656,10 @@
       <c r="A74" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74">
         <v>332</v>
       </c>
-      <c r="C74" s="31">
+      <c r="C74">
         <v>79</v>
       </c>
     </row>
@@ -81669,10 +81667,10 @@
       <c r="A75" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75">
         <v>5</v>
       </c>
-      <c r="C75" s="31">
+      <c r="C75">
         <v>2</v>
       </c>
     </row>
@@ -81680,10 +81678,10 @@
       <c r="A76" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76">
         <v>40</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76">
         <v>6</v>
       </c>
     </row>
@@ -81691,10 +81689,10 @@
       <c r="A77" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77">
         <v>42</v>
       </c>
-      <c r="C77" s="31">
+      <c r="C77">
         <v>22</v>
       </c>
     </row>
@@ -81702,10 +81700,10 @@
       <c r="A78" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78">
         <v>120</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78">
         <v>25</v>
       </c>
     </row>
@@ -81713,10 +81711,10 @@
       <c r="A79" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79">
         <v>125</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79">
         <v>24</v>
       </c>
     </row>
@@ -81724,10 +81722,10 @@
       <c r="A80" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80">
         <v>392</v>
       </c>
-      <c r="C80" s="31">
+      <c r="C80">
         <v>119</v>
       </c>
     </row>
@@ -81735,10 +81733,10 @@
       <c r="A81" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81">
         <v>87</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81">
         <v>31</v>
       </c>
     </row>
@@ -81746,10 +81744,10 @@
       <c r="A82" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="31">
-        <v>17</v>
-      </c>
-      <c r="C82" s="31">
+      <c r="B82">
+        <v>17</v>
+      </c>
+      <c r="C82">
         <v>2</v>
       </c>
     </row>
@@ -81757,10 +81755,10 @@
       <c r="A83" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="31">
-        <v>20</v>
-      </c>
-      <c r="C83" s="31">
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83">
         <v>22</v>
       </c>
     </row>
@@ -81768,10 +81766,10 @@
       <c r="A84" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="31">
+      <c r="B84">
         <v>173</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84">
         <v>34</v>
       </c>
     </row>
@@ -81779,10 +81777,10 @@
       <c r="A85" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="31">
+      <c r="B85">
         <v>95</v>
       </c>
-      <c r="C85" s="31">
+      <c r="C85">
         <v>30</v>
       </c>
     </row>
@@ -81790,10 +81788,10 @@
       <c r="A86" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="31">
+      <c r="B86">
         <v>157</v>
       </c>
-      <c r="C86" s="31">
+      <c r="C86">
         <v>20</v>
       </c>
     </row>
@@ -81801,10 +81799,10 @@
       <c r="A87" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="31">
+      <c r="B87">
         <v>47</v>
       </c>
-      <c r="C87" s="31">
+      <c r="C87">
         <v>3</v>
       </c>
     </row>
@@ -81812,10 +81810,10 @@
       <c r="A88" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B88">
         <v>61</v>
       </c>
-      <c r="C88" s="31">
+      <c r="C88">
         <v>9</v>
       </c>
     </row>
@@ -81823,10 +81821,10 @@
       <c r="A89" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89">
         <v>12</v>
       </c>
-      <c r="C89" s="31">
+      <c r="C89">
         <v>4</v>
       </c>
     </row>
@@ -81834,10 +81832,10 @@
       <c r="A90" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="31">
+      <c r="B90">
         <v>37</v>
       </c>
-      <c r="C90" s="31">
+      <c r="C90">
         <v>4</v>
       </c>
     </row>
@@ -81845,10 +81843,10 @@
       <c r="A91" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B91" s="31">
+      <c r="B91">
         <v>1442</v>
       </c>
-      <c r="C91" s="31">
+      <c r="C91">
         <v>481</v>
       </c>
     </row>
@@ -81872,7 +81870,7 @@
       <c r="A95" s="20">
         <v>0</v>
       </c>
-      <c r="B95" s="31">
+      <c r="B95">
         <v>519</v>
       </c>
     </row>
@@ -81880,7 +81878,7 @@
       <c r="A96" s="20">
         <v>1</v>
       </c>
-      <c r="B96" s="31">
+      <c r="B96">
         <v>481</v>
       </c>
     </row>
@@ -81888,7 +81886,7 @@
       <c r="A97" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97">
         <v>1000</v>
       </c>
     </row>
@@ -81902,7 +81900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2165A0F-592B-464E-BF14-C1A994629F96}">
   <dimension ref="D1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -81924,16 +81922,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80804776-9DFD-4CF9-9AB2-956064622791}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>